--- a/CM_CHECK Datasets.xlsx
+++ b/CM_CHECK Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedricmattmann/Desktop/AQM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B508693-12D7-184A-9415-1435599495C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F914CC46-DDA8-274C-B065-3DD7EB8E6658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26920" xr2:uid="{D8805D0C-6D0C-DB42-8ECC-33028BB9E265}"/>
   </bookViews>
@@ -1312,7 +1312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1336,6 +1336,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1343,19 +1344,19 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1669,22 +1670,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CB5B36-02B6-6F48-A1F0-DEA4E0F5F4F4}">
-  <dimension ref="A2:HP59"/>
+  <dimension ref="A1:HP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="FP44" sqref="FP44:FP49"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:222" x14ac:dyDescent="0.2">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
     <row r="2" spans="1:222" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="CH2" s="7" t="s">
         <v>375</v>
       </c>
@@ -5715,10 +5726,10 @@
       <c r="A12" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="CI12" s="10"/>
       <c r="CJ12" s="10"/>
       <c r="CK12" s="10"/>
@@ -9774,10 +9785,10 @@
       <c r="A22" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="CI22" s="10"/>
       <c r="CJ22" s="10"/>
       <c r="CK22" s="10"/>
@@ -13775,10 +13786,10 @@
       <c r="A32" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="1:224" x14ac:dyDescent="0.2">
       <c r="A33" t="b">
@@ -20042,10 +20053,10 @@
       <c r="A42" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
     </row>
     <row r="43" spans="1:224" x14ac:dyDescent="0.2">
       <c r="A43" t="b">
@@ -26309,10 +26320,10 @@
       <c r="A52" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" spans="1:224" x14ac:dyDescent="0.2">
       <c r="A53" t="b">
@@ -32574,7 +32585,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A32:XFD61">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSCH">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FALSCH">
       <formula>NOT(ISERROR(SEARCH("FALSCH",A32)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35315,7 +35326,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A221">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>A$17=0</formula>
     </cfRule>
   </conditionalFormatting>
